--- a/data/teacher/Ander. Edson..xlsx
+++ b/data/teacher/Ander. Edson..xlsx
@@ -990,17 +990,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NB-Tornearia', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-1NB-Tornearia', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-1NB-Tornearia', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[-, 'MEC-1NB-Tornearia', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">

--- a/data/teacher/Ander. Edson..xlsx
+++ b/data/teacher/Ander. Edson..xlsx
@@ -798,7 +798,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Usin. CNC</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Usin. CNC</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Usin. CNC</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Usin. CNC</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">

--- a/data/teacher/Ander. Edson..xlsx
+++ b/data/teacher/Ander. Edson..xlsx
@@ -798,17 +798,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>MEC-3A-Usin. CNC</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -862,17 +862,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>MEC-3A-Usin. CNC</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -889,22 +889,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Usin. CNC</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>MEC-3A-Usin. CNC</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MEC-3A-Usin. CNC</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
